--- a/KSA/results table.xlsx
+++ b/KSA/results table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/sarahjp_uw_edu/Documents/Risk_factor_model/KSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/sarahjp_uw_edu/Documents/Risk_factor_model/NCD-MP/KSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{0712345C-5305-4F38-875A-248AE896F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB3AB2C-E4F0-42BB-A561-92A242E4AE22}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{0712345C-5305-4F38-875A-248AE896F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2810169-DC08-427F-8384-6ED378DA482B}"/>
   <bookViews>
-    <workbookView xWindow="5510" yWindow="0" windowWidth="19860" windowHeight="15280" xr2:uid="{2A770175-E705-4B46-A0D5-AA3DD1027C04}"/>
+    <workbookView xWindow="7170" yWindow="2060" windowWidth="15550" windowHeight="15280" xr2:uid="{2A770175-E705-4B46-A0D5-AA3DD1027C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
